--- a/Datasets/test.xlsx
+++ b/Datasets/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\LN2PEPF0000BD40\EXCELCNV\00210d61-7464-447e-b2dc-76c7a8f03c3c\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\LN2PEPF0000F93C\EXCELCNV\478805fe-abf3-4a46-bb19-51fbfac89b03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{816C410C-3CF4-4D56-ABC5-95DD1E88CFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A19C938F-65C5-4A89-94D4-F95848B5B0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{EC79A5D2-B658-4720-AC45-8E565A401785}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{E27046B6-49E5-4B71-A8B1-4B6F950D9FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -16932,7 +16932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD7255C-CD0C-46E1-BF6E-6F3DBECA0CEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8974D9A-D2AA-4FB9-AC93-FAD6A1996A6E}">
   <dimension ref="A1:D2192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
